--- a/9 ML Sklearn/4z_standardisasi.xlsx
+++ b/9 ML Sklearn/4z_standardisasi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lintangwisesa\Downloads\Materi_Udemy_DataScience-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzz coding\Python_DataScience_Basic\9 ML Sklearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t xml:space="preserve">Tujuan: </t>
   </si>
@@ -203,12 +203,54 @@
   <si>
     <t>hasilnya antara 0 &amp; 1</t>
   </si>
+  <si>
+    <t>Delta Degrees of Freedom</t>
+  </si>
+  <si>
+    <t>Z TB dg STANDARDIZE</t>
+  </si>
+  <si>
+    <t>Z BB dg STANDARDIZE</t>
+  </si>
+  <si>
+    <t>y" = zy" * std(harga) + avg(harga)</t>
+  </si>
+  <si>
+    <t>y" = mx + c</t>
+  </si>
+  <si>
+    <t>Z mesin x</t>
+  </si>
+  <si>
+    <t>Z harga y</t>
+  </si>
+  <si>
+    <t>z y" hargaprediksi</t>
+  </si>
+  <si>
+    <t>y" hargaPrediksi</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>intercept</t>
+  </si>
+  <si>
+    <t>LINEAR REGRESSION with STANDARDIZATION</t>
+  </si>
+  <si>
+    <t>mesin x</t>
+  </si>
+  <si>
+    <t>harga y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,8 +281,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +340,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -296,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -311,6 +374,11 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1297,8 +1365,8 @@
       <xdr:rowOff>164122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>232120</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>62134</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>87924</xdr:rowOff>
     </xdr:to>
@@ -1328,13 +1396,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>550984</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>100898</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>433754</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>87923</xdr:rowOff>
@@ -1659,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1673,22 +1741,25 @@
     <col min="5" max="5" width="2.109375" style="1" customWidth="1"/>
     <col min="6" max="7" width="8.88671875" style="1"/>
     <col min="8" max="8" width="1.77734375" style="1" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="1.6640625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="2.21875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="16.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="1.6640625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="2.21875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.21875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1696,26 +1767,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1723,7 +1794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1733,37 +1804,37 @@
       <c r="I6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="T6" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="T7" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -1788,26 +1859,32 @@
       <c r="J9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="K9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="Q9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="T9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="U9" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>169.6</v>
       </c>
@@ -1838,32 +1915,40 @@
         <f>(B10-$G$10)/$G$14</f>
         <v>0.69422580980583704</v>
       </c>
-      <c r="L10" s="12">
+      <c r="K10" s="15">
+        <f>STANDARDIZE(A10, AVERAGE($A$10:$A$19), STDEV($A$10:$A$19))</f>
+        <v>0.56334631382694123</v>
+      </c>
+      <c r="L10" s="15">
+        <f>STANDARDIZE(B10:B19,AVERAGE($B$10:$B$19),STDEV($B$10:$B$20))</f>
+        <v>0.69422580980583704</v>
+      </c>
+      <c r="N10" s="12">
         <f>(A10-$F$10)/$F$26</f>
         <v>0.59381915438438049</v>
       </c>
-      <c r="M10" s="12">
+      <c r="O10" s="12">
         <f>(B10-$G$10)/$G$26</f>
         <v>0.73177825648710215</v>
       </c>
-      <c r="O10" s="5">
+      <c r="Q10" s="5">
         <f>(I10*$F$14)+AVERAGE($A$10:$A$19)</f>
         <v>169.6</v>
       </c>
-      <c r="P10" s="5">
+      <c r="R10" s="5">
         <f>(J10*$G$14)+AVERAGE($B$10:$B$19)</f>
         <v>71.2</v>
       </c>
-      <c r="R10" s="12">
+      <c r="T10" s="12">
         <f>(A10-MIN($A$10:$A$19))/(MAX($A$10:$A$19)-MIN($A$10:$A$19))</f>
         <v>0.53252032520325188</v>
       </c>
-      <c r="S10" s="12">
+      <c r="U10" s="12">
         <f>(B10-MIN($B$10:$B$19))/(MAX($B$10:$B$19)-MIN($B$10:$B$19))</f>
         <v>0.53921568627450989</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>166.8</v>
       </c>
@@ -1871,11 +1956,11 @@
         <v>58.2</v>
       </c>
       <c r="C11" s="7">
-        <f t="shared" ref="C11:C19" si="0">(A11-$F$10)^2</f>
+        <f t="shared" ref="C11:C20" si="0">(A11-$F$10)^2</f>
         <v>1.6384000000000756</v>
       </c>
       <c r="D11" s="7">
-        <f t="shared" ref="D11:D19" si="1">(B11-$G$10)^2</f>
+        <f t="shared" ref="D11:D20" si="1">(B11-$G$10)^2</f>
         <v>14.592399999999948</v>
       </c>
       <c r="I11" s="10">
@@ -1883,35 +1968,43 @@
         <v>0.17673609845551452</v>
       </c>
       <c r="J11" s="10">
-        <f t="shared" ref="J11:J19" si="2">(B11-$G$10)/$G$14</f>
+        <f t="shared" ref="J11:J20" si="2">(B11-$G$10)/$G$14</f>
         <v>-0.28888263545297288</v>
       </c>
-      <c r="L11" s="12">
-        <f t="shared" ref="L11:L19" si="3">(A11-$F$10)/$F$26</f>
+      <c r="K11" s="15">
+        <f t="shared" ref="K11:K19" si="3">STANDARDIZE(A11, AVERAGE($A$10:$A$19), STDEV($A$10:$A$19))</f>
+        <v>0.17673609845551452</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" ref="L11:L19" si="4">STANDARDIZE(B11:B20,AVERAGE($B$10:$B$19),STDEV($B$10:$B$20))</f>
+        <v>-0.28888263545297288</v>
+      </c>
+      <c r="N11" s="12">
+        <f t="shared" ref="N11:N20" si="5">(A11-$F$10)/$F$26</f>
         <v>0.18629620529706428</v>
       </c>
-      <c r="M11" s="12">
-        <f t="shared" ref="M11:M19" si="4">(B11-$G$10)/$G$26</f>
+      <c r="O11" s="12">
+        <f t="shared" ref="O11:O20" si="6">(B11-$G$10)/$G$26</f>
         <v>-0.30450903483450142</v>
       </c>
-      <c r="O11" s="5">
-        <f t="shared" ref="O11:O19" si="5">(I11*$F$14)+AVERAGE($A$10:$A$19)</f>
+      <c r="Q11" s="5">
+        <f t="shared" ref="Q11:Q20" si="7">(I11*$F$14)+AVERAGE($A$10:$A$19)</f>
         <v>166.8</v>
       </c>
-      <c r="P11" s="5">
-        <f t="shared" ref="P11:P19" si="6">(J11*$G$14)+AVERAGE($B$10:$B$19)</f>
+      <c r="R11" s="5">
+        <f t="shared" ref="R11:R20" si="8">(J11*$G$14)+AVERAGE($B$10:$B$19)</f>
         <v>58.2</v>
       </c>
-      <c r="R11" s="12">
-        <f t="shared" ref="R11:R19" si="7">(A11-MIN($A$10:$A$19))/(MAX($A$10:$A$19)-MIN($A$10:$A$19))</f>
+      <c r="T11" s="12">
+        <f t="shared" ref="T11:T20" si="9">(A11-MIN($A$10:$A$19))/(MAX($A$10:$A$19)-MIN($A$10:$A$19))</f>
         <v>0.41869918699187048</v>
       </c>
-      <c r="S11" s="12">
-        <f t="shared" ref="S11:S19" si="8">(B11-MIN($B$10:$B$19))/(MAX($B$10:$B$19)-MIN($B$10:$B$19))</f>
+      <c r="U11" s="12">
+        <f t="shared" ref="U11:U20" si="10">(B11-MIN($B$10:$B$19))/(MAX($B$10:$B$19)-MIN($B$10:$B$19))</f>
         <v>0.22058823529411767</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>157.1</v>
       </c>
@@ -1938,32 +2031,40 @@
         <f t="shared" si="2"/>
         <v>-0.45525483388138704</v>
       </c>
-      <c r="L12" s="12">
+      <c r="K12" s="15">
         <f t="shared" si="3"/>
+        <v>-1.1625921476526528</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.45525483388138704</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" si="5"/>
         <v>-1.2254797254697207</v>
       </c>
-      <c r="M12" s="12">
-        <f t="shared" si="4"/>
+      <c r="O12" s="12">
+        <f t="shared" si="6"/>
         <v>-0.47988073028892686</v>
       </c>
-      <c r="O12" s="5">
-        <f t="shared" si="5"/>
+      <c r="Q12" s="5">
+        <f t="shared" si="7"/>
         <v>157.1</v>
       </c>
-      <c r="P12" s="5">
-        <f t="shared" si="6"/>
+      <c r="R12" s="5">
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
-      <c r="R12" s="12">
-        <f t="shared" si="7"/>
+      <c r="T12" s="12">
+        <f t="shared" si="9"/>
         <v>2.43902439024388E-2</v>
       </c>
-      <c r="S12" s="12">
-        <f t="shared" si="8"/>
+      <c r="U12" s="12">
+        <f t="shared" si="10"/>
         <v>0.1666666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>181.1</v>
       </c>
@@ -1992,32 +2093,40 @@
         <f t="shared" si="2"/>
         <v>2.1159518691031929</v>
       </c>
-      <c r="L13" s="12">
+      <c r="K13" s="15">
         <f t="shared" si="3"/>
+        <v>2.1512096983881679</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="4"/>
+        <v>2.1159518691031929</v>
+      </c>
+      <c r="N13" s="12">
+        <f t="shared" si="5"/>
         <v>2.2675741238501539</v>
       </c>
-      <c r="M13" s="12">
-        <f t="shared" si="4"/>
+      <c r="O13" s="12">
+        <f t="shared" si="6"/>
         <v>2.2304091085521902</v>
       </c>
-      <c r="O13" s="5">
-        <f t="shared" si="5"/>
+      <c r="Q13" s="5">
+        <f t="shared" si="7"/>
         <v>181.1</v>
       </c>
-      <c r="P13" s="5">
-        <f t="shared" si="6"/>
+      <c r="R13" s="5">
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="R13" s="12">
-        <f t="shared" si="7"/>
+      <c r="T13" s="12">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S13" s="12">
-        <f t="shared" si="8"/>
+      <c r="U13" s="12">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>158.4</v>
       </c>
@@ -2041,39 +2150,47 @@
         <v>13.223363162725819</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" ref="I14:I19" si="9">(A14-$F$10)/$F$14</f>
+        <f t="shared" ref="I14:I20" si="11">(A14-$F$10)/$F$14</f>
         <v>-0.98309454765877358</v>
       </c>
       <c r="J14" s="10">
         <f t="shared" si="2"/>
         <v>-0.68212601355649705</v>
       </c>
-      <c r="L14" s="12">
+      <c r="K14" s="15">
         <f t="shared" si="3"/>
+        <v>-0.98309454765877358</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.68212601355649705</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" si="5"/>
         <v>-1.0362726419648927</v>
       </c>
-      <c r="M14" s="12">
-        <f t="shared" si="4"/>
+      <c r="O14" s="12">
+        <f t="shared" si="6"/>
         <v>-0.71902395136314301</v>
       </c>
-      <c r="O14" s="5">
-        <f t="shared" si="5"/>
+      <c r="Q14" s="5">
+        <f t="shared" si="7"/>
         <v>158.4</v>
       </c>
-      <c r="P14" s="5">
-        <f t="shared" si="6"/>
+      <c r="R14" s="5">
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
-      <c r="R14" s="12">
-        <f t="shared" si="7"/>
+      <c r="T14" s="12">
+        <f t="shared" si="9"/>
         <v>7.7235772357723831E-2</v>
       </c>
-      <c r="S14" s="12">
-        <f t="shared" si="8"/>
+      <c r="U14" s="12">
+        <f t="shared" si="10"/>
         <v>9.3137254901960717E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>165.6</v>
       </c>
@@ -2097,39 +2214,47 @@
         <v>13.223363162725786</v>
       </c>
       <c r="I15" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.1046006153471129E-2</v>
       </c>
       <c r="J15" s="10">
         <f t="shared" si="2"/>
         <v>-0.72750024949151915</v>
       </c>
-      <c r="L15" s="12">
+      <c r="K15" s="15">
         <f t="shared" si="3"/>
+        <v>1.1046006153471129E-2</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.72750024949151915</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" si="5"/>
         <v>1.1643512831068068E-2</v>
       </c>
-      <c r="M15" s="12">
-        <f t="shared" si="4"/>
+      <c r="O15" s="12">
+        <f t="shared" si="6"/>
         <v>-0.76685259557798635</v>
       </c>
-      <c r="O15" s="5">
-        <f t="shared" si="5"/>
+      <c r="Q15" s="5">
+        <f t="shared" si="7"/>
         <v>165.6</v>
       </c>
-      <c r="P15" s="5">
-        <f t="shared" si="6"/>
+      <c r="R15" s="5">
+        <f t="shared" si="8"/>
         <v>52.4</v>
       </c>
-      <c r="R15" s="12">
-        <f t="shared" si="7"/>
+      <c r="T15" s="12">
+        <f t="shared" si="9"/>
         <v>0.36991869918699172</v>
       </c>
-      <c r="S15" s="12">
-        <f t="shared" si="8"/>
+      <c r="U15" s="12">
+        <f t="shared" si="10"/>
         <v>7.843137254901951E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>166.7</v>
       </c>
@@ -2145,39 +2270,47 @@
         <v>27.24839999999999</v>
       </c>
       <c r="I16" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.16292859076367464</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="2"/>
         <v>-0.39475585263469126</v>
       </c>
-      <c r="L16" s="12">
+      <c r="K16" s="15">
         <f t="shared" si="3"/>
+        <v>0.16292859076367464</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.39475585263469126</v>
+      </c>
+      <c r="N16" s="12">
+        <f t="shared" si="5"/>
         <v>0.17174181425822815</v>
       </c>
-      <c r="M16" s="12">
-        <f t="shared" si="4"/>
+      <c r="O16" s="12">
+        <f t="shared" si="6"/>
         <v>-0.41610920466913609</v>
       </c>
-      <c r="O16" s="5">
-        <f t="shared" si="5"/>
+      <c r="Q16" s="5">
+        <f t="shared" si="7"/>
         <v>166.7</v>
       </c>
-      <c r="P16" s="5">
-        <f t="shared" si="6"/>
+      <c r="R16" s="5">
+        <f t="shared" si="8"/>
         <v>56.8</v>
       </c>
-      <c r="R16" s="12">
-        <f t="shared" si="7"/>
+      <c r="T16" s="12">
+        <f t="shared" si="9"/>
         <v>0.41463414634146306</v>
       </c>
-      <c r="S16" s="12">
-        <f t="shared" si="8"/>
+      <c r="U16" s="12">
+        <f t="shared" si="10"/>
         <v>0.18627450980392143</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>156.5</v>
       </c>
@@ -2193,39 +2326,47 @@
         <v>164.35239999999982</v>
       </c>
       <c r="I17" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.2454371938036726</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="2"/>
         <v>-0.96949617447830283</v>
       </c>
-      <c r="L17" s="12">
+      <c r="K17" s="15">
         <f t="shared" si="3"/>
+        <v>-1.2454371938036726</v>
+      </c>
+      <c r="L17" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.96949617447830283</v>
+      </c>
+      <c r="N17" s="12">
+        <f t="shared" si="5"/>
         <v>-1.3128060717027168</v>
       </c>
-      <c r="M17" s="12">
-        <f t="shared" si="4"/>
+      <c r="O17" s="12">
+        <f t="shared" si="6"/>
         <v>-1.0219386980571501</v>
       </c>
-      <c r="O17" s="5">
-        <f t="shared" si="5"/>
+      <c r="Q17" s="5">
+        <f t="shared" si="7"/>
         <v>156.5</v>
       </c>
-      <c r="P17" s="5">
-        <f t="shared" si="6"/>
+      <c r="R17" s="5">
+        <f t="shared" si="8"/>
         <v>49.2</v>
       </c>
-      <c r="R17" s="12">
-        <f t="shared" si="7"/>
+      <c r="T17" s="12">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S17" s="12">
-        <f t="shared" si="8"/>
+      <c r="U17" s="12">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>168.1</v>
       </c>
@@ -2241,39 +2382,47 @@
         <v>41.216399999999929</v>
       </c>
       <c r="I18" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.35623369844938996</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="2"/>
         <v>-0.48550432450473496</v>
       </c>
-      <c r="L18" s="12">
+      <c r="K18" s="15">
         <f t="shared" si="3"/>
+        <v>0.35623369844938996</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.48550432450473496</v>
+      </c>
+      <c r="N18" s="12">
+        <f t="shared" si="5"/>
         <v>0.37550328880188832</v>
       </c>
-      <c r="M18" s="12">
-        <f t="shared" si="4"/>
+      <c r="O18" s="12">
+        <f t="shared" si="6"/>
         <v>-0.51176649309882227</v>
       </c>
-      <c r="O18" s="5">
-        <f t="shared" si="5"/>
+      <c r="Q18" s="5">
+        <f t="shared" si="7"/>
         <v>168.1</v>
       </c>
-      <c r="P18" s="5">
-        <f t="shared" si="6"/>
+      <c r="R18" s="5">
+        <f t="shared" si="8"/>
         <v>55.6</v>
       </c>
-      <c r="R18" s="12">
-        <f t="shared" si="7"/>
+      <c r="T18" s="12">
+        <f t="shared" si="9"/>
         <v>0.47154471544715437</v>
       </c>
-      <c r="S18" s="12">
-        <f t="shared" si="8"/>
+      <c r="U18" s="12">
+        <f t="shared" si="10"/>
         <v>0.15686274509803919</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>165.3</v>
       </c>
@@ -2289,66 +2438,77 @@
         <v>249.00840000000002</v>
       </c>
       <c r="I19" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.0376516922036776E-2</v>
       </c>
       <c r="J19" s="10">
         <f t="shared" si="2"/>
         <v>1.1933424050910786</v>
       </c>
-      <c r="L19" s="12">
+      <c r="K19" s="15">
         <f t="shared" si="3"/>
+        <v>-3.0376516922036776E-2</v>
+      </c>
+      <c r="L19" s="15">
+        <f t="shared" si="4"/>
+        <v>1.1933424050910786</v>
+      </c>
+      <c r="N19" s="12">
+        <f t="shared" si="5"/>
         <v>-3.2019660285427881E-2</v>
       </c>
-      <c r="M19" s="12">
-        <f t="shared" si="4"/>
+      <c r="O19" s="12">
+        <f t="shared" si="6"/>
         <v>1.2578933428503773</v>
       </c>
-      <c r="O19" s="5">
-        <f t="shared" si="5"/>
+      <c r="Q19" s="5">
+        <f t="shared" si="7"/>
         <v>165.3</v>
       </c>
-      <c r="P19" s="5">
-        <f t="shared" si="6"/>
+      <c r="R19" s="5">
+        <f t="shared" si="8"/>
         <v>77.8</v>
       </c>
-      <c r="R19" s="12">
-        <f t="shared" si="7"/>
+      <c r="T19" s="12">
+        <f t="shared" si="9"/>
         <v>0.35772357723577292</v>
       </c>
-      <c r="S19" s="12">
-        <f t="shared" si="8"/>
+      <c r="U19" s="12">
+        <f t="shared" si="10"/>
         <v>0.7009803921568627</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F21" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="G21" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="J21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F24" s="5" t="s">
         <v>25</v>
       </c>
@@ -2357,7 +2517,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F25" s="5" t="s">
         <v>13</v>
       </c>
@@ -2368,7 +2528,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F26" s="1">
         <f>SQRT(SUM(C10:C19) / (COUNT(C10:C19) - 0))</f>
         <v>6.8707787040480328</v>
@@ -2381,15 +2541,273 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J27" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J28" s="1" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="I33"/>
+      <c r="J33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>1000</v>
+      </c>
+      <c r="B35" s="7">
+        <v>10</v>
+      </c>
+      <c r="C35" s="12">
+        <f xml:space="preserve"> $B$35 * A35 + $B$36</f>
+        <v>10025</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35" s="16">
+        <f xml:space="preserve"> STANDARDIZE(A35, AVERAGE($A$35:$A$39), STDEV($A$35:$A$39))</f>
+        <v>-1.2649110640673518</v>
+      </c>
+      <c r="G35" s="16">
+        <f>STANDARDIZE(B35, AVERAGE($B$35:$B$39), STDEV($B$35:$B$39))</f>
+        <v>-1.1376625572972392</v>
+      </c>
+      <c r="I35" s="7">
+        <f xml:space="preserve"> $G$41 * F35 + $G$42</f>
+        <v>-1.2477589338098753</v>
+      </c>
+      <c r="J35" s="7">
+        <f xml:space="preserve"> I35 * STDEV($B$35:$B$39) + AVERAGE($B$35:$B$39)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>2000</v>
+      </c>
+      <c r="B36" s="7">
+        <v>25</v>
+      </c>
+      <c r="C36" s="12">
+        <f t="shared" ref="C36:C39" si="12" xml:space="preserve"> $B$35 * A36 + $B$36</f>
+        <v>20025</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36" s="16">
+        <f t="shared" ref="F36:F39" si="13" xml:space="preserve"> STANDARDIZE(A36, AVERAGE($A$35:$A$39), STDEV($A$35:$A$39))</f>
+        <v>-0.63245553203367588</v>
+      </c>
+      <c r="G36" s="16">
+        <f t="shared" ref="G36:G39" si="14">STANDARDIZE(B36, AVERAGE($B$35:$B$39), STDEV($B$35:$B$39))</f>
+        <v>-0.58718067473405899</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" ref="I36:I39" si="15" xml:space="preserve"> $G$41 * F36 + $G$42</f>
+        <v>-0.62387946690493767</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" ref="J36:J39" si="16" xml:space="preserve"> I36 * STDEV($B$35:$B$39) + AVERAGE($B$35:$B$39)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>3000</v>
+      </c>
+      <c r="B37" s="7">
+        <v>35</v>
+      </c>
+      <c r="C37" s="12">
+        <f t="shared" si="12"/>
+        <v>30025</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="16">
+        <f t="shared" si="14"/>
+        <v>-0.22019275302527211</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" si="15"/>
+        <v>-4.380673825535291E-17</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="16"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>4000</v>
+      </c>
+      <c r="B38" s="7">
+        <v>55</v>
+      </c>
+      <c r="C38" s="12">
+        <f t="shared" si="12"/>
+        <v>40025</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38" s="16">
+        <f t="shared" si="13"/>
+        <v>0.63245553203367588</v>
+      </c>
+      <c r="G38" s="16">
+        <f t="shared" si="14"/>
+        <v>0.51378309039230163</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="15"/>
+        <v>0.62387946690493767</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="16"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>5000</v>
+      </c>
+      <c r="B39" s="7">
+        <v>80</v>
+      </c>
+      <c r="C39" s="12">
+        <f t="shared" si="12"/>
+        <v>50025</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39" s="16">
+        <f t="shared" si="13"/>
+        <v>1.2649110640673518</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" si="14"/>
+        <v>1.4312528946642686</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" si="15"/>
+        <v>1.2477589338098753</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41">
+        <f xml:space="preserve"> SLOPE(B35:B39, A35:A39)</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="1">
+        <f>SLOPE(G35:G39, F35:F39)</f>
+        <v>0.98644005041562099</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42">
+        <f>INTERCEPT(B35:B39, A35:A39)</f>
+        <v>-10.000000000000007</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42">
+        <f>INTERCEPT(G35:G39, F35:F39)</f>
+        <v>-4.380673825535291E-17</v>
+      </c>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9 ML Sklearn/4z_standardisasi.xlsx
+++ b/9 ML Sklearn/4z_standardisasi.xlsx
@@ -126,6 +126,90 @@
   </si>
   <si>
     <t>MMS BB</t>
+  </si>
+  <si>
+    <t>Inv TB</t>
+  </si>
+  <si>
+    <t>Inv BB</t>
+  </si>
+  <si>
+    <t>X = (z * s) + avg(x)</t>
+  </si>
+  <si>
+    <t>* hasil standardisasi dapat di</t>
+  </si>
+  <si>
+    <t>gunakan untuk model Machine</t>
+  </si>
+  <si>
+    <t>learning, lalu hasilnya diinverse</t>
+  </si>
+  <si>
+    <t>ke nilai sesungguhnya dg inverse</t>
+  </si>
+  <si>
+    <t>transform</t>
+  </si>
+  <si>
+    <t>inverse transform</t>
+  </si>
+  <si>
+    <t>ddof = 1</t>
+  </si>
+  <si>
+    <t>* nilai inverse transform</t>
+  </si>
+  <si>
+    <t>sama persis dg nilai awalnya</t>
+  </si>
+  <si>
+    <t>* scaling maxmin</t>
+  </si>
+  <si>
+    <t>hasilnya antara 0 &amp; 1</t>
+  </si>
+  <si>
+    <t>Delta Degrees of Freedom</t>
+  </si>
+  <si>
+    <t>Z TB dg STANDARDIZE</t>
+  </si>
+  <si>
+    <t>Z BB dg STANDARDIZE</t>
+  </si>
+  <si>
+    <t>y" = zy" * std(harga) + avg(harga)</t>
+  </si>
+  <si>
+    <t>y" = mx + c</t>
+  </si>
+  <si>
+    <t>Z mesin x</t>
+  </si>
+  <si>
+    <t>Z harga y</t>
+  </si>
+  <si>
+    <t>z y" hargaprediksi</t>
+  </si>
+  <si>
+    <t>y" hargaPrediksi</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>intercept</t>
+  </si>
+  <si>
+    <t>LINEAR REGRESSION with STANDARDIZATION</t>
+  </si>
+  <si>
+    <t>mesin x</t>
+  </si>
+  <si>
+    <t>harga y</t>
   </si>
   <si>
     <r>
@@ -158,92 +242,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>feature scaling</t>
+      <t>feature scaling / Z-score normalization</t>
     </r>
-  </si>
-  <si>
-    <t>Inv TB</t>
-  </si>
-  <si>
-    <t>Inv BB</t>
-  </si>
-  <si>
-    <t>X = (z * s) + avg(x)</t>
-  </si>
-  <si>
-    <t>* hasil standardisasi dapat di</t>
-  </si>
-  <si>
-    <t>gunakan untuk model Machine</t>
-  </si>
-  <si>
-    <t>learning, lalu hasilnya diinverse</t>
-  </si>
-  <si>
-    <t>ke nilai sesungguhnya dg inverse</t>
-  </si>
-  <si>
-    <t>transform</t>
-  </si>
-  <si>
-    <t>inverse transform</t>
-  </si>
-  <si>
-    <t>ddof = 1</t>
-  </si>
-  <si>
-    <t>* nilai inverse transform</t>
-  </si>
-  <si>
-    <t>sama persis dg nilai awalnya</t>
-  </si>
-  <si>
-    <t>* scaling maxmin</t>
-  </si>
-  <si>
-    <t>hasilnya antara 0 &amp; 1</t>
-  </si>
-  <si>
-    <t>Delta Degrees of Freedom</t>
-  </si>
-  <si>
-    <t>Z TB dg STANDARDIZE</t>
-  </si>
-  <si>
-    <t>Z BB dg STANDARDIZE</t>
-  </si>
-  <si>
-    <t>y" = zy" * std(harga) + avg(harga)</t>
-  </si>
-  <si>
-    <t>y" = mx + c</t>
-  </si>
-  <si>
-    <t>Z mesin x</t>
-  </si>
-  <si>
-    <t>Z harga y</t>
-  </si>
-  <si>
-    <t>z y" hargaprediksi</t>
-  </si>
-  <si>
-    <t>y" hargaPrediksi</t>
-  </si>
-  <si>
-    <t>slope</t>
-  </si>
-  <si>
-    <t>intercept</t>
-  </si>
-  <si>
-    <t>LINEAR REGRESSION with STANDARDIZATION</t>
-  </si>
-  <si>
-    <t>mesin x</t>
-  </si>
-  <si>
-    <t>harga y</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1730,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1756,7 +1756,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -1772,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -1783,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -1805,7 +1805,7 @@
         <v>29</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T6" s="13" t="s">
         <v>30</v>
@@ -1817,7 +1817,7 @@
         <v>8</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T7" s="13" t="s">
         <v>31</v>
@@ -1831,7 +1831,7 @@
         <v>27</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -1860,10 +1860,10 @@
         <v>19</v>
       </c>
       <c r="K9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="N9" s="11" t="s">
         <v>18</v>
@@ -1872,10 +1872,10 @@
         <v>19</v>
       </c>
       <c r="Q9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="T9" s="11" t="s">
         <v>32</v>
@@ -1956,11 +1956,11 @@
         <v>58.2</v>
       </c>
       <c r="C11" s="7">
-        <f t="shared" ref="C11:C20" si="0">(A11-$F$10)^2</f>
+        <f t="shared" ref="C11:C19" si="0">(A11-$F$10)^2</f>
         <v>1.6384000000000756</v>
       </c>
       <c r="D11" s="7">
-        <f t="shared" ref="D11:D20" si="1">(B11-$G$10)^2</f>
+        <f t="shared" ref="D11:D19" si="1">(B11-$G$10)^2</f>
         <v>14.592399999999948</v>
       </c>
       <c r="I11" s="10">
@@ -1968,7 +1968,7 @@
         <v>0.17673609845551452</v>
       </c>
       <c r="J11" s="10">
-        <f t="shared" ref="J11:J20" si="2">(B11-$G$10)/$G$14</f>
+        <f t="shared" ref="J11:J19" si="2">(B11-$G$10)/$G$14</f>
         <v>-0.28888263545297288</v>
       </c>
       <c r="K11" s="15">
@@ -1980,27 +1980,27 @@
         <v>-0.28888263545297288</v>
       </c>
       <c r="N11" s="12">
-        <f t="shared" ref="N11:N20" si="5">(A11-$F$10)/$F$26</f>
+        <f t="shared" ref="N11:N19" si="5">(A11-$F$10)/$F$26</f>
         <v>0.18629620529706428</v>
       </c>
       <c r="O11" s="12">
-        <f t="shared" ref="O11:O20" si="6">(B11-$G$10)/$G$26</f>
+        <f t="shared" ref="O11:O19" si="6">(B11-$G$10)/$G$26</f>
         <v>-0.30450903483450142</v>
       </c>
       <c r="Q11" s="5">
-        <f t="shared" ref="Q11:Q20" si="7">(I11*$F$14)+AVERAGE($A$10:$A$19)</f>
+        <f t="shared" ref="Q11:Q19" si="7">(I11*$F$14)+AVERAGE($A$10:$A$19)</f>
         <v>166.8</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" ref="R11:R20" si="8">(J11*$G$14)+AVERAGE($B$10:$B$19)</f>
+        <f t="shared" ref="R11:R19" si="8">(J11*$G$14)+AVERAGE($B$10:$B$19)</f>
         <v>58.2</v>
       </c>
       <c r="T11" s="12">
-        <f t="shared" ref="T11:T20" si="9">(A11-MIN($A$10:$A$19))/(MAX($A$10:$A$19)-MIN($A$10:$A$19))</f>
+        <f t="shared" ref="T11:T19" si="9">(A11-MIN($A$10:$A$19))/(MAX($A$10:$A$19)-MIN($A$10:$A$19))</f>
         <v>0.41869918699187048</v>
       </c>
       <c r="U11" s="12">
-        <f t="shared" ref="U11:U20" si="10">(B11-MIN($B$10:$B$19))/(MAX($B$10:$B$19)-MIN($B$10:$B$19))</f>
+        <f t="shared" ref="U11:U19" si="10">(B11-MIN($B$10:$B$19))/(MAX($B$10:$B$19)-MIN($B$10:$B$19))</f>
         <v>0.22058823529411767</v>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
         <v>13.223363162725819</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" ref="I14:I20" si="11">(A14-$F$10)/$F$14</f>
+        <f t="shared" ref="I14:I19" si="11">(A14-$F$10)/$F$14</f>
         <v>-0.98309454765877358</v>
       </c>
       <c r="J14" s="10">
@@ -2483,13 +2483,13 @@
         <v>22</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="G24" s="4"/>
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -2525,7 +2525,7 @@
         <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -2538,22 +2538,22 @@
         <v>12.544783776534372</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -2563,32 +2563,32 @@
       <c r="G33"/>
       <c r="I33"/>
       <c r="J33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="C34" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="I34" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="J34" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -2755,7 +2755,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41">
         <f xml:space="preserve"> SLOPE(B35:B39, A35:A39)</f>
@@ -2765,7 +2765,7 @@
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G41" s="1">
         <f>SLOPE(G35:G39, F35:F39)</f>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42">
         <f>INTERCEPT(B35:B39, A35:A39)</f>
@@ -2787,7 +2787,7 @@
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G42">
         <f>INTERCEPT(G35:G39, F35:F39)</f>

--- a/9 ML Sklearn/4z_standardisasi.xlsx
+++ b/9 ML Sklearn/4z_standardisasi.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzz coding\Python_DataScience_Basic\9 ML Sklearn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\Python_Fundamental_DataScience\9 ML Sklearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C091256-655F-40E0-A56C-15A4D88F272A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -249,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,7 +442,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1329,13 +1334,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>597877</xdr:colOff>
+      <xdr:colOff>588352</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>87922</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1372,7 +1383,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1409,7 +1426,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1446,7 +1469,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1726,40 +1755,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="1.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="1.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="1.6640625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="2.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.77734375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.21875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="19.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" style="1" customWidth="1"/>
+    <col min="14" max="15" width="8.85546875" style="1"/>
+    <col min="16" max="16" width="2.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1767,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1775,7 +1804,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1786,7 +1815,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1794,7 +1823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1811,7 +1840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -1823,7 +1852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1834,7 +1863,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -1884,7 +1913,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>169.6</v>
       </c>
@@ -1948,7 +1977,7 @@
         <v>0.53921568627450989</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>166.8</v>
       </c>
@@ -2004,7 +2033,7 @@
         <v>0.22058823529411767</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>157.1</v>
       </c>
@@ -2064,7 +2093,7 @@
         <v>0.1666666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>181.1</v>
       </c>
@@ -2126,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>158.4</v>
       </c>
@@ -2190,7 +2219,7 @@
         <v>9.3137254901960717E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>165.6</v>
       </c>
@@ -2254,7 +2283,7 @@
         <v>7.843137254901951E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>166.7</v>
       </c>
@@ -2310,7 +2339,7 @@
         <v>0.18627450980392143</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>156.5</v>
       </c>
@@ -2366,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>168.1</v>
       </c>
@@ -2422,7 +2451,7 @@
         <v>0.15686274509803919</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>165.3</v>
       </c>
@@ -2478,7 +2507,7 @@
         <v>0.7009803921568627</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F21" s="1" t="s">
         <v>22</v>
       </c>
@@ -2492,7 +2521,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
         <v>23</v>
       </c>
@@ -2503,12 +2532,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F24" s="5" t="s">
         <v>25</v>
       </c>
@@ -2517,7 +2546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F25" s="5" t="s">
         <v>13</v>
       </c>
@@ -2528,7 +2557,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F26" s="1">
         <f>SQRT(SUM(C10:C19) / (COUNT(C10:C19) - 0))</f>
         <v>6.8707787040480328</v>
@@ -2541,17 +2570,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J27" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J28" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>59</v>
       </c>
@@ -2566,7 +2595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>60</v>
       </c>
@@ -2591,7 +2620,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>1000</v>
       </c>
@@ -2599,8 +2628,8 @@
         <v>10</v>
       </c>
       <c r="C35" s="12">
-        <f xml:space="preserve"> $B$35 * A35 + $B$36</f>
-        <v>10025</v>
+        <f>$B$41 * A35 + $B$42</f>
+        <v>6.9999999999999929</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -2621,7 +2650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>2000</v>
       </c>
@@ -2629,8 +2658,8 @@
         <v>25</v>
       </c>
       <c r="C36" s="12">
-        <f t="shared" ref="C36:C39" si="12" xml:space="preserve"> $B$35 * A36 + $B$36</f>
-        <v>20025</v>
+        <f t="shared" ref="C36:C39" si="12">$B$41 * A36 + $B$42</f>
+        <v>23.999999999999993</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -2651,7 +2680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>3000</v>
       </c>
@@ -2660,7 +2689,7 @@
       </c>
       <c r="C37" s="12">
         <f t="shared" si="12"/>
-        <v>30025</v>
+        <v>41</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -2681,7 +2710,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>4000</v>
       </c>
@@ -2690,7 +2719,7 @@
       </c>
       <c r="C38" s="12">
         <f t="shared" si="12"/>
-        <v>40025</v>
+        <v>57.999999999999993</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -2711,7 +2740,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>5000</v>
       </c>
@@ -2720,7 +2749,7 @@
       </c>
       <c r="C39" s="12">
         <f t="shared" si="12"/>
-        <v>50025</v>
+        <v>75</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -2741,7 +2770,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -2753,7 +2782,7 @@
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -2775,7 +2804,7 @@
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2797,7 +2826,7 @@
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
